--- a/EnergySources_NPV.xlsx
+++ b/EnergySources_NPV.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Energy Capacity Forecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Energy Capacity Forecasting\Energy Policy Paper\1st Review Feb 2020\NPV Calcs\NPV-power-generation-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662BE8FD-4C15-45AF-9495-274BC55275BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="FuelType">'[1]INPUT-OUTPUT'!$C$39</definedName>
     <definedName name="UtilityArea">'[1]INPUT-OUTPUT'!$C$16</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -175,7 +176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -620,14 +621,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +748,7 @@
         <v>0.17699999999999999</v>
       </c>
       <c r="F2">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -828,7 +829,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="F3">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -990,7 +991,7 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="F5">
-        <v>0.13</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1557,7 +1558,7 @@
         <v>0.16</v>
       </c>
       <c r="F12">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1638,7 +1639,7 @@
         <v>0.152</v>
       </c>
       <c r="F13">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1719,7 +1720,7 @@
         <v>0.42</v>
       </c>
       <c r="F14">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1800,7 +1801,7 @@
         <v>0.48</v>
       </c>
       <c r="F15">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1881,7 +1882,7 @@
         <v>0.36</v>
       </c>
       <c r="F16">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="G16">
         <v>0</v>
